--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-004 - CRO atau CRM mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-004 - CRO atau CRM mengajukan data Non Sales.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D2CAB-17BE-4ACF-866B-7CC331F5ACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0D16A-72AB-4C80-B567-4ABA3CACF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0281" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,9 +113,6 @@
     <t>TEXT6</t>
   </si>
   <si>
-    <t>DGS-296</t>
-  </si>
-  <si>
     <t>CRO/CRM mengajukan data Non Sales</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Cuti Melahirkan</t>
+  </si>
+  <si>
+    <t>SCD0018-004</t>
   </si>
 </sst>
 </file>
@@ -557,13 +557,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9">
         <v>29349</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="M2" s="16" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-08-30</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="16" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-09-29</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -694,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="9">
         <v>18388</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9">
         <v>29349</v>
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
